--- a/Línea Base/LB02/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
+++ b/Línea Base/LB02/Desarrollo/Edutec/Requisitos/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Universidad\Edutec\Desarrollo\Edutec\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC88122-A84B-4E18-AE55-BBABE166A941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75EC7F8-721B-4E19-BA2E-4862EA211A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="12" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="CA_FAVORITOS" sheetId="6" r:id="rId7"/>
     <sheet name="CA_B_INSTITUTOS" sheetId="9" r:id="rId8"/>
     <sheet name="CA_D_INSITUTOS" sheetId="10" r:id="rId9"/>
-    <sheet name="CA_LISTAR_I" sheetId="8" r:id="rId10"/>
-    <sheet name="CA_LISTAR_U" sheetId="7" r:id="rId11"/>
-    <sheet name="CA_REPORTES" sheetId="11" r:id="rId12"/>
+    <sheet name="CA_GESTION_I" sheetId="8" r:id="rId10"/>
+    <sheet name="CA_GESTION_U" sheetId="7" r:id="rId11"/>
+    <sheet name="CA_PANEL_INICIO" sheetId="11" r:id="rId12"/>
     <sheet name="CA_RECUPERARC" sheetId="13" r:id="rId13"/>
     <sheet name="CA_NUEVAC" sheetId="14" r:id="rId14"/>
   </sheets>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>Modificación de Historias de Usuario</t>
   </si>
@@ -64,22 +64,10 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>poder transmitir la información relevante del sistema a las partes interesadas</t>
-  </si>
-  <si>
-    <t>vizualizar reportes</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
-    <t>Visualizar reportes</t>
-  </si>
-  <si>
     <t>A04</t>
-  </si>
-  <si>
-    <t>Funcionalidades administración</t>
   </si>
   <si>
     <t>gestionar las instituciones que se mostrarán a los clientes</t>
@@ -324,9 +312,6 @@
   <si>
     <t>para poder ingresar al sistema en caso haya olvidado mi contraseña</t>
   </si>
-  <si>
-    <t>A07</t>
-  </si>
 </sst>
 </file>
 
@@ -509,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -529,10 +514,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2519,12 +2500,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3048000" cy="2714627"/>
+    <xdr:ext cx="3352800" cy="3438527"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Shape 76">
@@ -2538,8 +2519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15735300" y="2095498"/>
-          <a:ext cx="3048000" cy="2714627"/>
+          <a:off x="15621000" y="1676398"/>
+          <a:ext cx="3352800" cy="3438527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2594,6 +2575,141 @@
               <a:sym typeface="Calibri"/>
             </a:rPr>
             <a:t> los campos serán obligatorios.".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Validaciones:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Nombre y apellidos: Max. 50 caracteres, solo letras.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Usuario: Max. 50 caracteres, solo letras y números.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Correo: Formato de correo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="0" indent="-171450" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Contraseña: Min. 3 caracteres</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -12013,10 +12129,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12060,11 +12176,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>87</v>
+      <c r="A2" s="20" t="s">
+        <v>83</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -12089,9 +12205,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -12116,12 +12232,12 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>86</v>
+      <c r="A4" s="16" t="s">
+        <v>82</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
-        <v>85</v>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -12147,12 +12263,12 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>84</v>
+      <c r="A5" s="16" t="s">
+        <v>80</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="19" t="s">
-        <v>83</v>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -12178,12 +12294,12 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>82</v>
+      <c r="A6" s="16" t="s">
+        <v>78</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
-        <v>81</v>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -12237,67 +12353,67 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="E8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="F8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="G8" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="H8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="D9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G9" s="7">
         <v>93</v>
@@ -12325,21 +12441,21 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7">
         <v>88</v>
@@ -12367,21 +12483,21 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7">
         <v>85</v>
@@ -12409,23 +12525,23 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>61</v>
+      <c r="A12" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7">
         <v>85</v>
@@ -12453,21 +12569,21 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7">
         <v>81</v>
@@ -12495,23 +12611,23 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>54</v>
+      <c r="A14" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7">
         <v>75</v>
@@ -12539,21 +12655,21 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7">
         <v>70</v>
@@ -12581,23 +12697,23 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>45</v>
+      <c r="A16" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7">
         <v>68</v>
@@ -12625,21 +12741,21 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>36</v>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="G17" s="7">
         <v>62</v>
@@ -12667,23 +12783,23 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>35</v>
+      <c r="A18" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G18" s="7">
         <v>50</v>
@@ -12711,21 +12827,21 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7">
         <v>48</v>
@@ -12753,21 +12869,21 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7">
         <v>48</v>
@@ -12795,21 +12911,21 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7">
         <v>47</v>
@@ -12837,23 +12953,23 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>19</v>
+      <c r="A22" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>15</v>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G22" s="7">
         <v>42</v>
@@ -12881,21 +12997,21 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>11</v>
+      <c r="F23" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="G23" s="7">
         <v>38</v>
@@ -12922,31 +13038,15 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7">
-        <v>25</v>
-      </c>
-      <c r="H24" s="6">
-        <v>13</v>
-      </c>
+    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -13078,12 +13178,18 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -13107,17 +13213,17 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>4</v>
+      <c r="A30" s="4">
+        <v>44505</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
+      <c r="B30" s="3">
+        <v>1.1000000000000001</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>2</v>
+      <c r="C30" s="25" t="s">
+        <v>1</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -13142,16 +13248,16 @@
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>44505</v>
+        <v>44519</v>
       </c>
       <c r="B31" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>1</v>
+      <c r="C31" s="25" t="s">
+        <v>0</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -13174,18 +13280,12 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>44519</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -40508,40 +40608,12 @@
       <c r="Y1007" s="2"/>
       <c r="Z1007" s="2"/>
     </row>
-    <row r="1008" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1008" s="2"/>
-      <c r="B1008" s="2"/>
-      <c r="C1008" s="2"/>
-      <c r="D1008" s="2"/>
-      <c r="E1008" s="2"/>
-      <c r="F1008" s="2"/>
-      <c r="G1008" s="2"/>
-      <c r="H1008" s="2"/>
-      <c r="I1008" s="2"/>
-      <c r="J1008" s="2"/>
-      <c r="K1008" s="2"/>
-      <c r="L1008" s="2"/>
-      <c r="M1008" s="2"/>
-      <c r="N1008" s="2"/>
-      <c r="O1008" s="2"/>
-      <c r="P1008" s="2"/>
-      <c r="Q1008" s="2"/>
-      <c r="R1008" s="2"/>
-      <c r="S1008" s="2"/>
-      <c r="T1008" s="2"/>
-      <c r="U1008" s="2"/>
-      <c r="V1008" s="2"/>
-      <c r="W1008" s="2"/>
-      <c r="X1008" s="2"/>
-      <c r="Y1008" s="2"/>
-      <c r="Z1008" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -40558,7 +40630,7 @@
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41557,8 +41629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView showGridLines="0" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42558,7 +42630,7 @@
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -43557,7 +43629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BC7684-AD98-4304-9F26-94626741FBB1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
